--- a/data/movies.xlsx
+++ b/data/movies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebbb3e907ddabade/Pictures/Desktop/sw오픈소스 영화플랫폼/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebbb3e907ddabade/Pictures/Desktop/새 폴더 (3)/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_5614806483444CCFEB3B98154B5DCE3A374296D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6E66369-A752-4AA0-8C7A-AF445F481266}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_5614806483444CCFEB3B98154B5DCE3A374296D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E5A94D-2DF8-4ECE-B588-1C37EBFAB09F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4433" uniqueCount="3042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="3043">
   <si>
     <t>original_title</t>
   </si>
@@ -9147,6 +9147,10 @@
   </si>
   <si>
     <t>title(en)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9498,15 +9502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>3040</v>
       </c>
@@ -9540,8 +9544,11 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L1" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>2652</v>
       </c>
@@ -9575,8 +9582,11 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>2653</v>
       </c>
@@ -9610,8 +9620,11 @@
       <c r="K3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9639,8 +9652,11 @@
       <c r="J4">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>2654</v>
       </c>
@@ -9674,8 +9690,11 @@
       <c r="K5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>2655</v>
       </c>
@@ -9709,8 +9728,11 @@
       <c r="K6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>2656</v>
       </c>
@@ -9744,8 +9766,11 @@
       <c r="K7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>2657</v>
       </c>
@@ -9779,8 +9804,11 @@
       <c r="K8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>2658</v>
       </c>
@@ -9811,8 +9839,11 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>2659</v>
       </c>
@@ -9846,8 +9877,11 @@
       <c r="K10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -9881,8 +9915,11 @@
       <c r="K11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -9916,8 +9953,11 @@
       <c r="K12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>2660</v>
       </c>
@@ -9951,8 +9991,11 @@
       <c r="K13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>2661</v>
       </c>
@@ -9986,8 +10029,11 @@
       <c r="K14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -10021,8 +10067,11 @@
       <c r="K15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>2662</v>
       </c>
@@ -10056,8 +10105,11 @@
       <c r="K16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -10091,8 +10143,11 @@
       <c r="K17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>2663</v>
       </c>
@@ -10126,8 +10181,11 @@
       <c r="K18" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -10161,8 +10219,11 @@
       <c r="K19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>2664</v>
       </c>
@@ -10196,8 +10257,11 @@
       <c r="K20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>2665</v>
       </c>
@@ -10231,8 +10295,11 @@
       <c r="K21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>2666</v>
       </c>
@@ -10266,8 +10333,11 @@
       <c r="K22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>2667</v>
       </c>
@@ -10301,8 +10371,11 @@
       <c r="K23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -10336,8 +10409,11 @@
       <c r="K24" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>2668</v>
       </c>
@@ -10371,8 +10447,11 @@
       <c r="K25" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>2669</v>
       </c>
@@ -10406,8 +10485,11 @@
       <c r="K26" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>162</v>
       </c>
@@ -10438,8 +10520,11 @@
       <c r="J27">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -10473,8 +10558,11 @@
       <c r="K28" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>2670</v>
       </c>
@@ -10508,8 +10596,11 @@
       <c r="K29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>2671</v>
       </c>
@@ -10543,8 +10634,11 @@
       <c r="K30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>2672</v>
       </c>
@@ -10578,8 +10672,11 @@
       <c r="K31" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>2673</v>
       </c>
@@ -10613,8 +10710,11 @@
       <c r="K32" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>2674</v>
       </c>
@@ -10648,8 +10748,11 @@
       <c r="K33" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>2675</v>
       </c>
@@ -10683,8 +10786,11 @@
       <c r="K34" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -10718,8 +10824,11 @@
       <c r="K35" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>2676</v>
       </c>
@@ -10753,8 +10862,11 @@
       <c r="K36" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>216</v>
       </c>
@@ -10788,8 +10900,11 @@
       <c r="K37" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>2677</v>
       </c>
@@ -10823,8 +10938,11 @@
       <c r="K38" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>2678</v>
       </c>
@@ -10858,8 +10976,11 @@
       <c r="K39" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>2679</v>
       </c>
@@ -10893,8 +11014,11 @@
       <c r="K40" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>2680</v>
       </c>
@@ -10928,8 +11052,11 @@
       <c r="K41" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>2681</v>
       </c>
@@ -10963,8 +11090,11 @@
       <c r="K42" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>252</v>
       </c>
@@ -10998,8 +11128,11 @@
       <c r="K43" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>257</v>
       </c>
@@ -11030,8 +11163,11 @@
       <c r="J44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>2682</v>
       </c>
@@ -11065,8 +11201,11 @@
       <c r="K45" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>266</v>
       </c>
@@ -11097,8 +11236,11 @@
       <c r="J46">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>271</v>
       </c>
@@ -11132,8 +11274,11 @@
       <c r="K47" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>278</v>
       </c>
@@ -11167,8 +11312,11 @@
       <c r="K48" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>285</v>
       </c>
@@ -11202,8 +11350,11 @@
       <c r="K49" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>2683</v>
       </c>
@@ -11237,8 +11388,11 @@
       <c r="K50" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>2684</v>
       </c>
@@ -11272,8 +11426,11 @@
       <c r="K51" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>302</v>
       </c>
@@ -11307,8 +11464,11 @@
       <c r="K52" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>308</v>
       </c>
@@ -11342,8 +11502,11 @@
       <c r="K53" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>2685</v>
       </c>
@@ -11377,8 +11540,11 @@
       <c r="K54" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>2686</v>
       </c>
@@ -11412,8 +11578,11 @@
       <c r="K55" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>2687</v>
       </c>
@@ -11447,8 +11616,11 @@
       <c r="K56" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>2688</v>
       </c>
@@ -11482,8 +11654,11 @@
       <c r="K57" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>2659</v>
       </c>
@@ -11517,8 +11692,11 @@
       <c r="K58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>2689</v>
       </c>
@@ -11552,8 +11730,11 @@
       <c r="K59" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>339</v>
       </c>
@@ -11584,8 +11765,11 @@
       <c r="J60">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>2690</v>
       </c>
@@ -11619,8 +11803,11 @@
       <c r="K61" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>349</v>
       </c>
@@ -11654,8 +11841,11 @@
       <c r="K62" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>2691</v>
       </c>
@@ -11689,8 +11879,11 @@
       <c r="K63" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>2692</v>
       </c>
@@ -11724,8 +11917,11 @@
       <c r="K64" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>2693</v>
       </c>
@@ -11759,8 +11955,11 @@
       <c r="K65" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>2694</v>
       </c>
@@ -11791,8 +11990,11 @@
       <c r="J66">
         <v>7.5449999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>2695</v>
       </c>
@@ -11826,8 +12028,11 @@
       <c r="K67" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>2696</v>
       </c>
@@ -11861,8 +12066,11 @@
       <c r="K68" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>2697</v>
       </c>
@@ -11896,8 +12104,11 @@
       <c r="K69" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>2698</v>
       </c>
@@ -11931,8 +12142,11 @@
       <c r="K70" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>2699</v>
       </c>
@@ -11966,8 +12180,11 @@
       <c r="K71" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>2700</v>
       </c>
@@ -12001,8 +12218,11 @@
       <c r="K72" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>2701</v>
       </c>
@@ -12036,8 +12256,11 @@
       <c r="K73" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>2702</v>
       </c>
@@ -12071,8 +12294,11 @@
       <c r="K74" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>2703</v>
       </c>
@@ -12106,8 +12332,11 @@
       <c r="K75" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>2704</v>
       </c>
@@ -12141,8 +12370,11 @@
       <c r="K76" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>2705</v>
       </c>
@@ -12176,8 +12408,11 @@
       <c r="K77" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>2706</v>
       </c>
@@ -12211,8 +12446,11 @@
       <c r="K78" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>2707</v>
       </c>
@@ -12246,8 +12484,11 @@
       <c r="K79" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>447</v>
       </c>
@@ -12278,8 +12519,11 @@
       <c r="J80">
         <v>6.6820000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>2708</v>
       </c>
@@ -12313,8 +12557,11 @@
       <c r="K81" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>458</v>
       </c>
@@ -12342,8 +12589,11 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>2709</v>
       </c>
@@ -12377,8 +12627,11 @@
       <c r="K83" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>470</v>
       </c>
@@ -12412,8 +12665,11 @@
       <c r="K84" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>477</v>
       </c>
@@ -12447,8 +12703,11 @@
       <c r="K85" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>2710</v>
       </c>
@@ -12482,8 +12741,11 @@
       <c r="K86" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>2711</v>
       </c>
@@ -12517,8 +12779,11 @@
       <c r="K87" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>2712</v>
       </c>
@@ -12552,8 +12817,11 @@
       <c r="K88" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>499</v>
       </c>
@@ -12587,8 +12855,11 @@
       <c r="K89" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>2713</v>
       </c>
@@ -12622,8 +12893,11 @@
       <c r="K90" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>2714</v>
       </c>
@@ -12657,8 +12931,11 @@
       <c r="K91" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>2715</v>
       </c>
@@ -12692,8 +12969,11 @@
       <c r="K92" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>2716</v>
       </c>
@@ -12727,8 +13007,11 @@
       <c r="K93" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>2717</v>
       </c>
@@ -12762,8 +13045,11 @@
       <c r="K94" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>2718</v>
       </c>
@@ -12797,8 +13083,11 @@
       <c r="K95" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>538</v>
       </c>
@@ -12829,8 +13118,11 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>2719</v>
       </c>
@@ -12864,8 +13156,11 @@
       <c r="K97" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>547</v>
       </c>
@@ -12899,8 +13194,11 @@
       <c r="K98" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>2720</v>
       </c>
@@ -12931,8 +13229,11 @@
       <c r="J99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>2721</v>
       </c>
@@ -12966,8 +13267,11 @@
       <c r="K100" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>2722</v>
       </c>
@@ -13001,8 +13305,11 @@
       <c r="K101" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>2723</v>
       </c>
@@ -13036,8 +13343,11 @@
       <c r="K102" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>2724</v>
       </c>
@@ -13071,8 +13381,11 @@
       <c r="K103" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>2725</v>
       </c>
@@ -13106,8 +13419,11 @@
       <c r="K104" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>2726</v>
       </c>
@@ -13141,8 +13457,11 @@
       <c r="K105" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>2727</v>
       </c>
@@ -13176,8 +13495,11 @@
       <c r="K106" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>2728</v>
       </c>
@@ -13211,8 +13533,11 @@
       <c r="K107" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>598</v>
       </c>
@@ -13243,8 +13568,11 @@
       <c r="J108">
         <v>5.7889999999999997</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>603</v>
       </c>
@@ -13278,8 +13606,11 @@
       <c r="K109" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>2729</v>
       </c>
@@ -13313,8 +13644,11 @@
       <c r="K110" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>2730</v>
       </c>
@@ -13348,8 +13682,11 @@
       <c r="K111" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>2731</v>
       </c>
@@ -13383,8 +13720,11 @@
       <c r="K112" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>628</v>
       </c>
@@ -13418,8 +13758,11 @@
       <c r="K113" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>635</v>
       </c>
@@ -13453,8 +13796,11 @@
       <c r="K114" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>2732</v>
       </c>
@@ -13488,8 +13834,11 @@
       <c r="K115" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>646</v>
       </c>
@@ -13520,8 +13869,11 @@
       <c r="J116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>2733</v>
       </c>
@@ -13555,8 +13907,11 @@
       <c r="K117" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>2734</v>
       </c>
@@ -13590,8 +13945,11 @@
       <c r="K118" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>2735</v>
       </c>
@@ -13625,8 +13983,11 @@
       <c r="K119" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>2736</v>
       </c>
@@ -13657,8 +14018,11 @@
       <c r="J120">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>673</v>
       </c>
@@ -13692,8 +14056,11 @@
       <c r="K121" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>2737</v>
       </c>
@@ -13727,8 +14094,11 @@
       <c r="K122" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>2738</v>
       </c>
@@ -13762,8 +14132,11 @@
       <c r="K123" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
         <v>687</v>
       </c>
@@ -13794,8 +14167,11 @@
       <c r="J124">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>2739</v>
       </c>
@@ -13829,8 +14205,11 @@
       <c r="K125" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
         <v>698</v>
       </c>
@@ -13861,8 +14240,11 @@
       <c r="J126">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
         <v>2740</v>
       </c>
@@ -13896,8 +14278,11 @@
       <c r="K127" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
         <v>2741</v>
       </c>
@@ -13931,8 +14316,11 @@
       <c r="K128" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
         <v>2742</v>
       </c>
@@ -13966,8 +14354,11 @@
       <c r="K129" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>2743</v>
       </c>
@@ -14001,8 +14392,11 @@
       <c r="K130" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>2744</v>
       </c>
@@ -14036,8 +14430,11 @@
       <c r="K131" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>2745</v>
       </c>
@@ -14071,8 +14468,11 @@
       <c r="K132" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>2746</v>
       </c>
@@ -14106,8 +14506,11 @@
       <c r="K133" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>2747</v>
       </c>
@@ -14141,8 +14544,11 @@
       <c r="K134" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>748</v>
       </c>
@@ -14176,8 +14582,11 @@
       <c r="K135" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>2748</v>
       </c>
@@ -14211,8 +14620,11 @@
       <c r="K136" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>2749</v>
       </c>
@@ -14246,8 +14658,11 @@
       <c r="K137" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>2750</v>
       </c>
@@ -14281,8 +14696,11 @@
       <c r="K138" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
         <v>2751</v>
       </c>
@@ -14316,8 +14734,11 @@
       <c r="K139" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>2752</v>
       </c>
@@ -14351,8 +14772,11 @@
       <c r="K140" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A141" t="s">
         <v>2753</v>
       </c>
@@ -14386,8 +14810,11 @@
       <c r="K141" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>2754</v>
       </c>
@@ -14421,8 +14848,11 @@
       <c r="K142" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>2755</v>
       </c>
@@ -14456,8 +14886,11 @@
       <c r="K143" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>2756</v>
       </c>
@@ -14491,8 +14924,11 @@
       <c r="K144" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>805</v>
       </c>
@@ -14523,8 +14959,11 @@
       <c r="J145">
         <v>8.2080000000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>2757</v>
       </c>
@@ -14558,8 +14997,11 @@
       <c r="K146" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>814</v>
       </c>
@@ -14593,8 +15035,11 @@
       <c r="K147" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>2758</v>
       </c>
@@ -14628,8 +15073,11 @@
       <c r="K148" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>2759</v>
       </c>
@@ -14663,8 +15111,11 @@
       <c r="K149" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>2760</v>
       </c>
@@ -14698,8 +15149,11 @@
       <c r="K150" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>2761</v>
       </c>
@@ -14733,8 +15187,11 @@
       <c r="K151" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>2762</v>
       </c>
@@ -14768,8 +15225,11 @@
       <c r="K152" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>2763</v>
       </c>
@@ -14800,8 +15260,11 @@
       <c r="J153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>2764</v>
       </c>
@@ -14835,8 +15298,11 @@
       <c r="K154" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>2765</v>
       </c>
@@ -14870,8 +15336,11 @@
       <c r="K155" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>2766</v>
       </c>
@@ -14905,8 +15374,11 @@
       <c r="K156" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>2767</v>
       </c>
@@ -14940,8 +15412,11 @@
       <c r="K157" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>2768</v>
       </c>
@@ -14975,8 +15450,11 @@
       <c r="K158" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>879</v>
       </c>
@@ -15010,8 +15488,11 @@
       <c r="K159" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>2769</v>
       </c>
@@ -15045,8 +15526,11 @@
       <c r="K160" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>2770</v>
       </c>
@@ -15080,8 +15564,11 @@
       <c r="K161" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>2770</v>
       </c>
@@ -15115,8 +15602,11 @@
       <c r="K162" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
         <v>2771</v>
       </c>
@@ -15150,8 +15640,11 @@
       <c r="K163" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>901</v>
       </c>
@@ -15185,8 +15678,11 @@
       <c r="K164" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A165" t="s">
         <v>2772</v>
       </c>
@@ -15220,8 +15716,11 @@
       <c r="K165" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>2773</v>
       </c>
@@ -15255,8 +15754,11 @@
       <c r="K166" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>2774</v>
       </c>
@@ -15290,8 +15792,11 @@
       <c r="K167" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>2775</v>
       </c>
@@ -15322,8 +15827,11 @@
       <c r="J168">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>2776</v>
       </c>
@@ -15357,8 +15865,11 @@
       <c r="K169" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>933</v>
       </c>
@@ -15392,8 +15903,11 @@
       <c r="K170" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>2777</v>
       </c>
@@ -15427,8 +15941,11 @@
       <c r="K171" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>2778</v>
       </c>
@@ -15462,8 +15979,11 @@
       <c r="K172" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A173" t="s">
         <v>950</v>
       </c>
@@ -15497,8 +16017,11 @@
       <c r="K173" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A174" t="s">
         <v>2779</v>
       </c>
@@ -15529,8 +16052,11 @@
       <c r="J174">
         <v>5.984</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A175" t="s">
         <v>2780</v>
       </c>
@@ -15564,8 +16090,11 @@
       <c r="K175" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A176" t="s">
         <v>960</v>
       </c>
@@ -15599,8 +16128,11 @@
       <c r="K176" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
         <v>2781</v>
       </c>
@@ -15634,8 +16166,11 @@
       <c r="K177" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
         <v>2782</v>
       </c>
@@ -15669,8 +16204,11 @@
       <c r="K178" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
         <v>979</v>
       </c>
@@ -15704,8 +16242,11 @@
       <c r="K179" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
         <v>2783</v>
       </c>
@@ -15739,8 +16280,11 @@
       <c r="K180" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A181" t="s">
         <v>992</v>
       </c>
@@ -15774,8 +16318,11 @@
       <c r="K181" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A182" t="s">
         <v>2784</v>
       </c>
@@ -15809,8 +16356,11 @@
       <c r="K182" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A183" t="s">
         <v>2785</v>
       </c>
@@ -15844,8 +16394,11 @@
       <c r="K183" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A184" t="s">
         <v>1009</v>
       </c>
@@ -15876,8 +16429,11 @@
       <c r="J184">
         <v>5.9580000000000002</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A185" t="s">
         <v>2786</v>
       </c>
@@ -15911,8 +16467,11 @@
       <c r="K185" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A186" t="s">
         <v>1021</v>
       </c>
@@ -15943,8 +16502,11 @@
       <c r="J186">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A187" t="s">
         <v>2787</v>
       </c>
@@ -15978,8 +16540,11 @@
       <c r="K187" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
         <v>2788</v>
       </c>
@@ -16013,8 +16578,11 @@
       <c r="K188" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A189" t="s">
         <v>2789</v>
       </c>
@@ -16048,8 +16616,11 @@
       <c r="K189" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A190" t="s">
         <v>2790</v>
       </c>
@@ -16083,8 +16654,11 @@
       <c r="K190" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A191" t="s">
         <v>1048</v>
       </c>
@@ -16115,8 +16689,11 @@
       <c r="J191">
         <v>6.2839999999999998</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A192" t="s">
         <v>2791</v>
       </c>
@@ -16150,8 +16727,11 @@
       <c r="K192" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A193" t="s">
         <v>2792</v>
       </c>
@@ -16185,8 +16765,11 @@
       <c r="K193" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A194" t="s">
         <v>2793</v>
       </c>
@@ -16220,8 +16803,11 @@
       <c r="K194" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A195" t="s">
         <v>2794</v>
       </c>
@@ -16255,8 +16841,11 @@
       <c r="K195" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
         <v>1076</v>
       </c>
@@ -16287,8 +16876,11 @@
       <c r="J196">
         <v>7.0410000000000004</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
         <v>2795</v>
       </c>
@@ -16322,8 +16914,11 @@
       <c r="K197" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
         <v>2796</v>
       </c>
@@ -16357,8 +16952,11 @@
       <c r="K198" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
         <v>2797</v>
       </c>
@@ -16392,8 +16990,11 @@
       <c r="K199" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
         <v>2798</v>
       </c>
@@ -16424,8 +17025,11 @@
       <c r="J200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A201" t="s">
         <v>2799</v>
       </c>
@@ -16459,8 +17063,11 @@
       <c r="K201" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A202" t="s">
         <v>1107</v>
       </c>
@@ -16494,8 +17101,11 @@
       <c r="K202" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A203" t="s">
         <v>2800</v>
       </c>
@@ -16529,8 +17139,11 @@
       <c r="K203" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A204" t="s">
         <v>1118</v>
       </c>
@@ -16564,8 +17177,11 @@
       <c r="K204" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A205" t="s">
         <v>2801</v>
       </c>
@@ -16599,8 +17215,11 @@
       <c r="K205" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
         <v>2802</v>
       </c>
@@ -16634,8 +17253,11 @@
       <c r="K206" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A207" t="s">
         <v>2803</v>
       </c>
@@ -16669,8 +17291,11 @@
       <c r="K207" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A208" t="s">
         <v>2804</v>
       </c>
@@ -16701,8 +17326,11 @@
       <c r="J208">
         <v>5.4109999999999996</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A209" t="s">
         <v>2805</v>
       </c>
@@ -16733,8 +17361,11 @@
       <c r="J209">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A210" t="s">
         <v>2806</v>
       </c>
@@ -16768,8 +17399,11 @@
       <c r="K210" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A211" t="s">
         <v>2807</v>
       </c>
@@ -16803,8 +17437,11 @@
       <c r="K211" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A212" t="s">
         <v>2808</v>
       </c>
@@ -16838,8 +17475,11 @@
       <c r="K212" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A213" t="s">
         <v>2809</v>
       </c>
@@ -16873,8 +17513,11 @@
       <c r="K213" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A214" t="s">
         <v>2810</v>
       </c>
@@ -16908,8 +17551,11 @@
       <c r="K214" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A215" t="s">
         <v>2811</v>
       </c>
@@ -16943,8 +17589,11 @@
       <c r="K215" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A216" t="s">
         <v>2812</v>
       </c>
@@ -16978,8 +17627,11 @@
       <c r="K216" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A217" t="s">
         <v>1189</v>
       </c>
@@ -17010,8 +17662,11 @@
       <c r="J217">
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A218" t="s">
         <v>2813</v>
       </c>
@@ -17045,8 +17700,11 @@
       <c r="K218" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A219" t="s">
         <v>2814</v>
       </c>
@@ -17080,8 +17738,11 @@
       <c r="K219" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A220" t="s">
         <v>2815</v>
       </c>
@@ -17115,8 +17776,11 @@
       <c r="K220" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A221" t="s">
         <v>2816</v>
       </c>
@@ -17150,8 +17814,11 @@
       <c r="K221" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A222" t="s">
         <v>2817</v>
       </c>
@@ -17185,8 +17852,11 @@
       <c r="K222" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A223" t="s">
         <v>2818</v>
       </c>
@@ -17220,8 +17890,11 @@
       <c r="K223" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A224" t="s">
         <v>2819</v>
       </c>
@@ -17255,8 +17928,11 @@
       <c r="K224" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
         <v>1226</v>
       </c>
@@ -17290,8 +17966,11 @@
       <c r="K225" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A226" t="s">
         <v>2820</v>
       </c>
@@ -17325,8 +18004,11 @@
       <c r="K226" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A227" t="s">
         <v>2821</v>
       </c>
@@ -17360,8 +18042,11 @@
       <c r="K227" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A228" t="s">
         <v>2822</v>
       </c>
@@ -17395,8 +18080,11 @@
       <c r="K228" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A229" t="s">
         <v>2823</v>
       </c>
@@ -17430,8 +18118,11 @@
       <c r="K229" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A230" t="s">
         <v>2824</v>
       </c>
@@ -17462,8 +18153,11 @@
       <c r="J230">
         <v>10</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A231" t="s">
         <v>2825</v>
       </c>
@@ -17497,8 +18191,11 @@
       <c r="K231" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A232" t="s">
         <v>2826</v>
       </c>
@@ -17532,8 +18229,11 @@
       <c r="K232" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A233" t="s">
         <v>1272</v>
       </c>
@@ -17567,8 +18267,11 @@
       <c r="K233" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A234" t="s">
         <v>2827</v>
       </c>
@@ -17602,8 +18305,11 @@
       <c r="K234" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A235" t="s">
         <v>2828</v>
       </c>
@@ -17637,8 +18343,11 @@
       <c r="K235" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A236" t="s">
         <v>2829</v>
       </c>
@@ -17672,8 +18381,11 @@
       <c r="K236" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A237" t="s">
         <v>2830</v>
       </c>
@@ -17707,8 +18419,11 @@
       <c r="K237" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A238" t="s">
         <v>2831</v>
       </c>
@@ -17742,8 +18457,11 @@
       <c r="K238" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A239" t="s">
         <v>1301</v>
       </c>
@@ -17774,8 +18492,11 @@
       <c r="J239">
         <v>7.1920000000000002</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A240" t="s">
         <v>2832</v>
       </c>
@@ -17809,8 +18530,11 @@
       <c r="K240" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A241" t="s">
         <v>2833</v>
       </c>
@@ -17844,8 +18568,11 @@
       <c r="K241" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A242" t="s">
         <v>2834</v>
       </c>
@@ -17879,8 +18606,11 @@
       <c r="K242" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A243" t="s">
         <v>1319</v>
       </c>
@@ -17914,8 +18644,11 @@
       <c r="K243" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A244" t="s">
         <v>2835</v>
       </c>
@@ -17949,8 +18682,11 @@
       <c r="K244" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A245" t="s">
         <v>2836</v>
       </c>
@@ -17984,8 +18720,11 @@
       <c r="K245" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A246" t="s">
         <v>2837</v>
       </c>
@@ -18019,8 +18758,11 @@
       <c r="K246" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A247" t="s">
         <v>2838</v>
       </c>
@@ -18054,8 +18796,11 @@
       <c r="K247" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A248" t="s">
         <v>2839</v>
       </c>
@@ -18089,8 +18834,11 @@
       <c r="K248" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A249" t="s">
         <v>2840</v>
       </c>
@@ -18121,8 +18869,11 @@
       <c r="J249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A250" t="s">
         <v>2841</v>
       </c>
@@ -18156,8 +18907,11 @@
       <c r="K250" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A251" t="s">
         <v>2842</v>
       </c>
@@ -18191,8 +18945,11 @@
       <c r="K251" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A252" t="s">
         <v>2843</v>
       </c>
@@ -18226,8 +18983,11 @@
       <c r="K252" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A253" t="s">
         <v>2844</v>
       </c>
@@ -18261,8 +19021,11 @@
       <c r="K253" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A254" t="s">
         <v>2845</v>
       </c>
@@ -18296,8 +19059,11 @@
       <c r="K254" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A255" t="s">
         <v>2846</v>
       </c>
@@ -18331,8 +19097,11 @@
       <c r="K255" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A256" t="s">
         <v>2847</v>
       </c>
@@ -18366,8 +19135,11 @@
       <c r="K256" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A257" t="s">
         <v>1394</v>
       </c>
@@ -18401,8 +19173,11 @@
       <c r="K257" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A258" t="s">
         <v>2848</v>
       </c>
@@ -18436,8 +19211,11 @@
       <c r="K258" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A259" t="s">
         <v>2849</v>
       </c>
@@ -18471,8 +19249,11 @@
       <c r="K259" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A260" t="s">
         <v>2850</v>
       </c>
@@ -18506,8 +19287,11 @@
       <c r="K260" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A261" t="s">
         <v>1415</v>
       </c>
@@ -18541,8 +19325,11 @@
       <c r="K261" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A262" t="s">
         <v>1420</v>
       </c>
@@ -18576,8 +19363,11 @@
       <c r="K262" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A263" t="s">
         <v>2851</v>
       </c>
@@ -18611,8 +19401,11 @@
       <c r="K263" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A264" t="s">
         <v>1432</v>
       </c>
@@ -18646,8 +19439,11 @@
       <c r="K264" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A265" t="s">
         <v>2852</v>
       </c>
@@ -18681,8 +19477,11 @@
       <c r="K265" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A266" t="s">
         <v>2853</v>
       </c>
@@ -18713,8 +19512,11 @@
       <c r="J266">
         <v>6</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A267" t="s">
         <v>1448</v>
       </c>
@@ -18748,8 +19550,11 @@
       <c r="K267" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A268" t="s">
         <v>2854</v>
       </c>
@@ -18783,8 +19588,11 @@
       <c r="K268" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A269" t="s">
         <v>1458</v>
       </c>
@@ -18818,8 +19626,11 @@
       <c r="K269" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A270" t="s">
         <v>2855</v>
       </c>
@@ -18853,8 +19664,11 @@
       <c r="K270" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A271" t="s">
         <v>2856</v>
       </c>
@@ -18888,8 +19702,11 @@
       <c r="K271" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A272" t="s">
         <v>2857</v>
       </c>
@@ -18923,8 +19740,11 @@
       <c r="K272" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A273" t="s">
         <v>2858</v>
       </c>
@@ -18955,8 +19775,11 @@
       <c r="J273">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A274" t="s">
         <v>2859</v>
       </c>
@@ -18990,8 +19813,11 @@
       <c r="K274" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A275" t="s">
         <v>2860</v>
       </c>
@@ -19025,8 +19851,11 @@
       <c r="K275" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A276" t="s">
         <v>2861</v>
       </c>
@@ -19060,8 +19889,11 @@
       <c r="K276" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A277" t="s">
         <v>2862</v>
       </c>
@@ -19095,8 +19927,11 @@
       <c r="K277" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A278" t="s">
         <v>2863</v>
       </c>
@@ -19130,8 +19965,11 @@
       <c r="K278" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A279" t="s">
         <v>2864</v>
       </c>
@@ -19165,8 +20003,11 @@
       <c r="K279" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A280" t="s">
         <v>2865</v>
       </c>
@@ -19200,8 +20041,11 @@
       <c r="K280" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A281" t="s">
         <v>2866</v>
       </c>
@@ -19232,8 +20076,11 @@
       <c r="J281">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A282" t="s">
         <v>1519</v>
       </c>
@@ -19264,8 +20111,11 @@
       <c r="J282">
         <v>7.0970000000000004</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A283" t="s">
         <v>1523</v>
       </c>
@@ -19299,8 +20149,11 @@
       <c r="K283" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A284" t="s">
         <v>1530</v>
       </c>
@@ -19334,8 +20187,11 @@
       <c r="K284" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A285" t="s">
         <v>2867</v>
       </c>
@@ -19369,8 +20225,11 @@
       <c r="K285" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A286" t="s">
         <v>2868</v>
       </c>
@@ -19404,8 +20263,11 @@
       <c r="K286" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A287" t="s">
         <v>2869</v>
       </c>
@@ -19439,8 +20301,11 @@
       <c r="K287" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A288" t="s">
         <v>2870</v>
       </c>
@@ -19474,8 +20339,11 @@
       <c r="K288" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A289" t="s">
         <v>2871</v>
       </c>
@@ -19509,8 +20377,11 @@
       <c r="K289" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A290" t="s">
         <v>2872</v>
       </c>
@@ -19544,8 +20415,11 @@
       <c r="K290" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A291" t="s">
         <v>2873</v>
       </c>
@@ -19579,8 +20453,11 @@
       <c r="K291" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A292" t="s">
         <v>1577</v>
       </c>
@@ -19611,8 +20488,11 @@
       <c r="J292">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A293" t="s">
         <v>1581</v>
       </c>
@@ -19646,8 +20526,11 @@
       <c r="K293" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A294" t="s">
         <v>2874</v>
       </c>
@@ -19681,8 +20564,11 @@
       <c r="K294" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A295" t="s">
         <v>2875</v>
       </c>
@@ -19716,8 +20602,11 @@
       <c r="K295" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A296" t="s">
         <v>1599</v>
       </c>
@@ -19751,8 +20640,11 @@
       <c r="K296" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A297" t="s">
         <v>2876</v>
       </c>
@@ -19786,8 +20678,11 @@
       <c r="K297" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A298" t="s">
         <v>1610</v>
       </c>
@@ -19818,8 +20713,11 @@
       <c r="J298">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A299" t="s">
         <v>2877</v>
       </c>
@@ -19853,8 +20751,11 @@
       <c r="K299" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A300" t="s">
         <v>2878</v>
       </c>
@@ -19888,8 +20789,11 @@
       <c r="K300" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A301" t="s">
         <v>2879</v>
       </c>
@@ -19923,8 +20827,11 @@
       <c r="K301" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A302" t="s">
         <v>2880</v>
       </c>
@@ -19958,8 +20865,11 @@
       <c r="K302" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A303" t="s">
         <v>1633</v>
       </c>
@@ -19993,8 +20903,11 @@
       <c r="K303" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A304" t="s">
         <v>2881</v>
       </c>
@@ -20028,8 +20941,11 @@
       <c r="K304" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A305" t="s">
         <v>2882</v>
       </c>
@@ -20063,8 +20979,11 @@
       <c r="K305" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A306" t="s">
         <v>2883</v>
       </c>
@@ -20098,8 +21017,11 @@
       <c r="K306" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A307" t="s">
         <v>2884</v>
       </c>
@@ -20133,8 +21055,11 @@
       <c r="K307" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A308" t="s">
         <v>2885</v>
       </c>
@@ -20168,8 +21093,11 @@
       <c r="K308" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A309" t="s">
         <v>1662</v>
       </c>
@@ -20203,8 +21131,11 @@
       <c r="K309" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A310" t="s">
         <v>2886</v>
       </c>
@@ -20238,8 +21169,11 @@
       <c r="K310" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A311" t="s">
         <v>2887</v>
       </c>
@@ -20273,8 +21207,11 @@
       <c r="K311" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A312" t="s">
         <v>2888</v>
       </c>
@@ -20308,8 +21245,11 @@
       <c r="K312" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A313" t="s">
         <v>2889</v>
       </c>
@@ -20343,8 +21283,11 @@
       <c r="K313" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A314" t="s">
         <v>2890</v>
       </c>
@@ -20378,8 +21321,11 @@
       <c r="K314" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A315" t="s">
         <v>2891</v>
       </c>
@@ -20413,8 +21359,11 @@
       <c r="K315" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A316" t="s">
         <v>2892</v>
       </c>
@@ -20448,8 +21397,11 @@
       <c r="K316" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A317" t="s">
         <v>1708</v>
       </c>
@@ -20483,8 +21435,11 @@
       <c r="K317" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A318" t="s">
         <v>1716</v>
       </c>
@@ -20515,8 +21470,11 @@
       <c r="J318">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A319" t="s">
         <v>2893</v>
       </c>
@@ -20550,8 +21508,11 @@
       <c r="K319" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A320" t="s">
         <v>1727</v>
       </c>
@@ -20582,8 +21543,11 @@
       <c r="J320">
         <v>8.375</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A321" t="s">
         <v>2894</v>
       </c>
@@ -20617,8 +21581,11 @@
       <c r="K321" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A322" t="s">
         <v>2895</v>
       </c>
@@ -20652,8 +21619,11 @@
       <c r="K322" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A323" t="s">
         <v>1743</v>
       </c>
@@ -20687,8 +21657,11 @@
       <c r="K323" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A324" t="s">
         <v>2896</v>
       </c>
@@ -20722,8 +21695,11 @@
       <c r="K324" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A325" t="s">
         <v>2897</v>
       </c>
@@ -20757,8 +21733,11 @@
       <c r="K325" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A326" t="s">
         <v>2898</v>
       </c>
@@ -20792,8 +21771,11 @@
       <c r="K326" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A327" t="s">
         <v>2899</v>
       </c>
@@ -20824,8 +21806,11 @@
       <c r="J327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A328" t="s">
         <v>2900</v>
       </c>
@@ -20859,8 +21844,11 @@
       <c r="K328" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A329" t="s">
         <v>2901</v>
       </c>
@@ -20894,8 +21882,11 @@
       <c r="K329" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A330" t="s">
         <v>2902</v>
       </c>
@@ -20926,8 +21917,11 @@
       <c r="J330">
         <v>4.2949999999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A331" t="s">
         <v>2903</v>
       </c>
@@ -20961,8 +21955,11 @@
       <c r="K331" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A332" t="s">
         <v>2904</v>
       </c>
@@ -20996,8 +21993,11 @@
       <c r="K332" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A333" t="s">
         <v>2905</v>
       </c>
@@ -21031,8 +22031,11 @@
       <c r="K333" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A334" t="s">
         <v>2906</v>
       </c>
@@ -21066,8 +22069,11 @@
       <c r="K334" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A335" t="s">
         <v>1801</v>
       </c>
@@ -21101,8 +22107,11 @@
       <c r="K335" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A336" t="s">
         <v>2907</v>
       </c>
@@ -21133,8 +22142,11 @@
       <c r="J336">
         <v>6.0220000000000002</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A337" t="s">
         <v>1812</v>
       </c>
@@ -21168,8 +22180,11 @@
       <c r="K337" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A338" t="s">
         <v>1817</v>
       </c>
@@ -21200,8 +22215,11 @@
       <c r="J338">
         <v>6.6429999999999998</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A339" t="s">
         <v>2908</v>
       </c>
@@ -21235,8 +22253,11 @@
       <c r="K339" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A340" t="s">
         <v>2909</v>
       </c>
@@ -21270,8 +22291,11 @@
       <c r="K340" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A341" t="s">
         <v>1834</v>
       </c>
@@ -21305,8 +22329,11 @@
       <c r="K341" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A342" t="s">
         <v>2910</v>
       </c>
@@ -21340,8 +22367,11 @@
       <c r="K342" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A343" t="s">
         <v>2911</v>
       </c>
@@ -21375,8 +22405,11 @@
       <c r="K343" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A344" t="s">
         <v>2912</v>
       </c>
@@ -21410,8 +22443,11 @@
       <c r="K344" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A345" t="s">
         <v>2913</v>
       </c>
@@ -21439,8 +22475,11 @@
       <c r="J345">
         <v>6</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A346" t="s">
         <v>2914</v>
       </c>
@@ -21474,8 +22513,11 @@
       <c r="K346" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A347" t="s">
         <v>2915</v>
       </c>
@@ -21509,8 +22551,11 @@
       <c r="K347" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A348" t="s">
         <v>2916</v>
       </c>
@@ -21541,8 +22586,11 @@
       <c r="J348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A349" t="s">
         <v>2917</v>
       </c>
@@ -21576,8 +22624,11 @@
       <c r="K349" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A350" t="s">
         <v>2918</v>
       </c>
@@ -21611,8 +22662,11 @@
       <c r="K350" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A351" t="s">
         <v>2919</v>
       </c>
@@ -21646,8 +22700,11 @@
       <c r="K351" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A352" t="s">
         <v>2920</v>
       </c>
@@ -21681,8 +22738,11 @@
       <c r="K352" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A353" t="s">
         <v>2921</v>
       </c>
@@ -21713,8 +22773,11 @@
       <c r="J353">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A354" t="s">
         <v>2922</v>
       </c>
@@ -21748,8 +22811,11 @@
       <c r="K354" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A355" t="s">
         <v>2923</v>
       </c>
@@ -21780,8 +22846,11 @@
       <c r="J355">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A356" t="s">
         <v>2924</v>
       </c>
@@ -21815,8 +22884,11 @@
       <c r="K356" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A357" t="s">
         <v>2925</v>
       </c>
@@ -21850,8 +22922,11 @@
       <c r="K357" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A358" t="s">
         <v>1924</v>
       </c>
@@ -21879,8 +22954,11 @@
       <c r="J358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A359" t="s">
         <v>1928</v>
       </c>
@@ -21914,8 +22992,11 @@
       <c r="K359" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A360" t="s">
         <v>2926</v>
       </c>
@@ -21949,8 +23030,11 @@
       <c r="K360" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A361" t="s">
         <v>2927</v>
       </c>
@@ -21984,8 +23068,11 @@
       <c r="K361" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A362" t="s">
         <v>1943</v>
       </c>
@@ -22019,8 +23106,11 @@
       <c r="K362" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A363" t="s">
         <v>2928</v>
       </c>
@@ -22054,8 +23144,11 @@
       <c r="K363" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A364" t="s">
         <v>1953</v>
       </c>
@@ -22089,8 +23182,11 @@
       <c r="K364" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A365" t="s">
         <v>2851</v>
       </c>
@@ -22124,8 +23220,11 @@
       <c r="K365" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A366" t="s">
         <v>2929</v>
       </c>
@@ -22159,8 +23258,11 @@
       <c r="K366" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A367" t="s">
         <v>2930</v>
       </c>
@@ -22194,8 +23296,11 @@
       <c r="K367" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A368" t="s">
         <v>2931</v>
       </c>
@@ -22229,8 +23334,11 @@
       <c r="K368" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A369" t="s">
         <v>2932</v>
       </c>
@@ -22264,8 +23372,11 @@
       <c r="K369" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A370" t="s">
         <v>2933</v>
       </c>
@@ -22299,8 +23410,11 @@
       <c r="K370" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A371" t="s">
         <v>2934</v>
       </c>
@@ -22334,8 +23448,11 @@
       <c r="K371" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A372" t="s">
         <v>2935</v>
       </c>
@@ -22369,8 +23486,11 @@
       <c r="K372" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A373" t="s">
         <v>2936</v>
       </c>
@@ -22404,8 +23524,11 @@
       <c r="K373" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A374" t="s">
         <v>2937</v>
       </c>
@@ -22439,8 +23562,11 @@
       <c r="K374" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A375" t="s">
         <v>2007</v>
       </c>
@@ -22468,8 +23594,11 @@
       <c r="J375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A376" t="s">
         <v>2938</v>
       </c>
@@ -22503,8 +23632,11 @@
       <c r="K376" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A377" t="s">
         <v>2939</v>
       </c>
@@ -22538,8 +23670,11 @@
       <c r="K377" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A378" t="s">
         <v>2940</v>
       </c>
@@ -22573,8 +23708,11 @@
       <c r="K378" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A379" t="s">
         <v>2941</v>
       </c>
@@ -22608,8 +23746,11 @@
       <c r="K379" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A380" t="s">
         <v>2942</v>
       </c>
@@ -22643,8 +23784,11 @@
       <c r="K380" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A381" t="s">
         <v>2037</v>
       </c>
@@ -22678,8 +23822,11 @@
       <c r="K381" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A382" t="s">
         <v>2943</v>
       </c>
@@ -22713,8 +23860,11 @@
       <c r="K382" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A383" t="s">
         <v>2944</v>
       </c>
@@ -22748,8 +23898,11 @@
       <c r="K383" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A384" t="s">
         <v>2945</v>
       </c>
@@ -22783,8 +23936,11 @@
       <c r="K384" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A385" t="s">
         <v>2946</v>
       </c>
@@ -22815,8 +23971,11 @@
       <c r="J385">
         <v>2</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A386" t="s">
         <v>2947</v>
       </c>
@@ -22850,8 +24009,11 @@
       <c r="K386" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A387" t="s">
         <v>2948</v>
       </c>
@@ -22885,8 +24047,11 @@
       <c r="K387" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A388" t="s">
         <v>2949</v>
       </c>
@@ -22920,8 +24085,11 @@
       <c r="K388" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A389" t="s">
         <v>2950</v>
       </c>
@@ -22955,8 +24123,11 @@
       <c r="K389" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A390" t="s">
         <v>2951</v>
       </c>
@@ -22990,8 +24161,11 @@
       <c r="K390" t="s">
         <v>2081</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A391" t="s">
         <v>2952</v>
       </c>
@@ -23025,8 +24199,11 @@
       <c r="K391" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A392" t="s">
         <v>2953</v>
       </c>
@@ -23060,8 +24237,11 @@
       <c r="K392" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A393" t="s">
         <v>2094</v>
       </c>
@@ -23095,8 +24275,11 @@
       <c r="K393" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A394" t="s">
         <v>2954</v>
       </c>
@@ -23130,8 +24313,11 @@
       <c r="K394" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A395" t="s">
         <v>2955</v>
       </c>
@@ -23162,8 +24348,11 @@
       <c r="J395">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A396" t="s">
         <v>2956</v>
       </c>
@@ -23194,8 +24383,11 @@
       <c r="J396">
         <v>6</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A397" t="s">
         <v>2115</v>
       </c>
@@ -23226,8 +24418,11 @@
       <c r="J397">
         <v>5.9379999999999997</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A398" t="s">
         <v>2957</v>
       </c>
@@ -23261,8 +24456,11 @@
       <c r="K398" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A399" t="s">
         <v>2958</v>
       </c>
@@ -23296,8 +24494,11 @@
       <c r="K399" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A400" t="s">
         <v>2959</v>
       </c>
@@ -23331,8 +24532,11 @@
       <c r="K400" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A401" t="s">
         <v>2133</v>
       </c>
@@ -23366,8 +24570,11 @@
       <c r="K401" t="s">
         <v>2138</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A402" t="s">
         <v>2139</v>
       </c>
@@ -23401,8 +24608,11 @@
       <c r="K402" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A403" t="s">
         <v>2960</v>
       </c>
@@ -23436,8 +24646,11 @@
       <c r="K403" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A404" t="s">
         <v>2961</v>
       </c>
@@ -23471,8 +24684,11 @@
       <c r="K404" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A405" t="s">
         <v>2156</v>
       </c>
@@ -23503,8 +24719,11 @@
       <c r="J405">
         <v>6</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A406" t="s">
         <v>2962</v>
       </c>
@@ -23538,8 +24757,11 @@
       <c r="K406" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A407" t="s">
         <v>2963</v>
       </c>
@@ -23573,8 +24795,11 @@
       <c r="K407" t="s">
         <v>2168</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A408" t="s">
         <v>2964</v>
       </c>
@@ -23608,8 +24833,11 @@
       <c r="K408" t="s">
         <v>2174</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A409" t="s">
         <v>2965</v>
       </c>
@@ -23643,8 +24871,11 @@
       <c r="K409" t="s">
         <v>2180</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A410" t="s">
         <v>2966</v>
       </c>
@@ -23678,8 +24909,11 @@
       <c r="K410" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A411" t="s">
         <v>2183</v>
       </c>
@@ -23713,8 +24947,11 @@
       <c r="K411" t="s">
         <v>2187</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A412" t="s">
         <v>2967</v>
       </c>
@@ -23748,8 +24985,11 @@
       <c r="K412" t="s">
         <v>2193</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A413" t="s">
         <v>2968</v>
       </c>
@@ -23783,8 +25023,11 @@
       <c r="K413" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A414" t="s">
         <v>2969</v>
       </c>
@@ -23818,8 +25061,11 @@
       <c r="K414" t="s">
         <v>2203</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A415" t="s">
         <v>2970</v>
       </c>
@@ -23853,8 +25099,11 @@
       <c r="K415" t="s">
         <v>2209</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A416" t="s">
         <v>2971</v>
       </c>
@@ -23888,8 +25137,11 @@
       <c r="K416" t="s">
         <v>2215</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A417" t="s">
         <v>2972</v>
       </c>
@@ -23923,8 +25175,11 @@
       <c r="K417" t="s">
         <v>2220</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A418" t="s">
         <v>2973</v>
       </c>
@@ -23958,8 +25213,11 @@
       <c r="K418" t="s">
         <v>2225</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A419" t="s">
         <v>2226</v>
       </c>
@@ -23990,8 +25248,11 @@
       <c r="J419">
         <v>6.2069999999999999</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A420" t="s">
         <v>2974</v>
       </c>
@@ -24025,8 +25286,11 @@
       <c r="K420" t="s">
         <v>2236</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A421" t="s">
         <v>2975</v>
       </c>
@@ -24060,8 +25324,11 @@
       <c r="K421" t="s">
         <v>2241</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A422" t="s">
         <v>2976</v>
       </c>
@@ -24095,8 +25362,11 @@
       <c r="K422" t="s">
         <v>2246</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A423" t="s">
         <v>2977</v>
       </c>
@@ -24130,8 +25400,11 @@
       <c r="K423" t="s">
         <v>2251</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A424" t="s">
         <v>2978</v>
       </c>
@@ -24165,8 +25438,11 @@
       <c r="K424" t="s">
         <v>2256</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A425" t="s">
         <v>2979</v>
       </c>
@@ -24200,8 +25476,11 @@
       <c r="K425" t="s">
         <v>2261</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A426" t="s">
         <v>2980</v>
       </c>
@@ -24235,8 +25514,11 @@
       <c r="K426" t="s">
         <v>2267</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A427" t="s">
         <v>2981</v>
       </c>
@@ -24264,8 +25546,11 @@
       <c r="J427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A428" t="s">
         <v>2982</v>
       </c>
@@ -24299,8 +25584,11 @@
       <c r="K428" t="s">
         <v>2275</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A429" t="s">
         <v>2983</v>
       </c>
@@ -24334,8 +25622,11 @@
       <c r="K429" t="s">
         <v>2281</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A430" t="s">
         <v>2984</v>
       </c>
@@ -24369,8 +25660,11 @@
       <c r="K430" t="s">
         <v>2286</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A431" t="s">
         <v>2288</v>
       </c>
@@ -24401,8 +25695,11 @@
       <c r="J431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A432" t="s">
         <v>2985</v>
       </c>
@@ -24436,8 +25733,11 @@
       <c r="K432" t="s">
         <v>2297</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A433" t="s">
         <v>2986</v>
       </c>
@@ -24471,8 +25771,11 @@
       <c r="K433" t="s">
         <v>2301</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A434" t="s">
         <v>2987</v>
       </c>
@@ -24506,8 +25809,11 @@
       <c r="K434" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A435" t="s">
         <v>2988</v>
       </c>
@@ -24541,8 +25847,11 @@
       <c r="K435" t="s">
         <v>2311</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A436" t="s">
         <v>2989</v>
       </c>
@@ -24576,8 +25885,11 @@
       <c r="K436" t="s">
         <v>2316</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A437" t="s">
         <v>2990</v>
       </c>
@@ -24611,8 +25923,11 @@
       <c r="K437" t="s">
         <v>2321</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A438" t="s">
         <v>2991</v>
       </c>
@@ -24646,8 +25961,11 @@
       <c r="K438" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A439" t="s">
         <v>2992</v>
       </c>
@@ -24681,8 +25999,11 @@
       <c r="K439" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A440" t="s">
         <v>2774</v>
       </c>
@@ -24716,8 +26037,11 @@
       <c r="K440" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A441" t="s">
         <v>2993</v>
       </c>
@@ -24748,8 +26072,11 @@
       <c r="J441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A442" t="s">
         <v>2994</v>
       </c>
@@ -24783,8 +26110,11 @@
       <c r="K442" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A443" t="s">
         <v>2995</v>
       </c>
@@ -24818,8 +26148,11 @@
       <c r="K443" t="s">
         <v>2349</v>
       </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A444" t="s">
         <v>2351</v>
       </c>
@@ -24853,8 +26186,11 @@
       <c r="K444" t="s">
         <v>2355</v>
       </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A445" t="s">
         <v>2996</v>
       </c>
@@ -24888,8 +26224,11 @@
       <c r="K445" t="s">
         <v>2361</v>
       </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A446" t="s">
         <v>2362</v>
       </c>
@@ -24923,8 +26262,11 @@
       <c r="K446" t="s">
         <v>2367</v>
       </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A447" t="s">
         <v>2369</v>
       </c>
@@ -24952,8 +26294,11 @@
       <c r="J447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A448" t="s">
         <v>2997</v>
       </c>
@@ -24987,8 +26332,11 @@
       <c r="K448" t="s">
         <v>2376</v>
       </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A449" t="s">
         <v>2998</v>
       </c>
@@ -25022,8 +26370,11 @@
       <c r="K449" t="s">
         <v>2381</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A450" t="s">
         <v>2999</v>
       </c>
@@ -25057,8 +26408,11 @@
       <c r="K450" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A451" t="s">
         <v>3000</v>
       </c>
@@ -25092,8 +26446,11 @@
       <c r="K451" t="s">
         <v>2387</v>
       </c>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A452" t="s">
         <v>3001</v>
       </c>
@@ -25127,8 +26484,11 @@
       <c r="K452" t="s">
         <v>2392</v>
       </c>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A453" t="s">
         <v>3002</v>
       </c>
@@ -25156,8 +26516,11 @@
       <c r="J453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A454" t="s">
         <v>3003</v>
       </c>
@@ -25191,8 +26554,11 @@
       <c r="K454" t="s">
         <v>2401</v>
       </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A455" t="s">
         <v>3004</v>
       </c>
@@ -25226,8 +26592,11 @@
       <c r="K455" t="s">
         <v>2286</v>
       </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A456" t="s">
         <v>2403</v>
       </c>
@@ -25258,8 +26627,11 @@
       <c r="J456">
         <v>7.4169999999999998</v>
       </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A457" t="s">
         <v>3005</v>
       </c>
@@ -25293,8 +26665,11 @@
       <c r="K457" t="s">
         <v>2411</v>
       </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A458" t="s">
         <v>3006</v>
       </c>
@@ -25325,8 +26700,11 @@
       <c r="J458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A459" t="s">
         <v>3007</v>
       </c>
@@ -25360,8 +26738,11 @@
       <c r="K459" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A460" t="s">
         <v>2424</v>
       </c>
@@ -25395,8 +26776,11 @@
       <c r="K460" t="s">
         <v>2428</v>
       </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A461" t="s">
         <v>3008</v>
       </c>
@@ -25430,8 +26814,11 @@
       <c r="K461" t="s">
         <v>2435</v>
       </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A462" t="s">
         <v>2437</v>
       </c>
@@ -25459,8 +26846,11 @@
       <c r="J462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A463" t="s">
         <v>3009</v>
       </c>
@@ -25494,8 +26884,11 @@
       <c r="K463" t="s">
         <v>2446</v>
       </c>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A464" t="s">
         <v>3010</v>
       </c>
@@ -25529,8 +26922,11 @@
       <c r="K464" t="s">
         <v>2451</v>
       </c>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A465" t="s">
         <v>2453</v>
       </c>
@@ -25564,8 +26960,11 @@
       <c r="K465" t="s">
         <v>2457</v>
       </c>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A466" t="s">
         <v>3011</v>
       </c>
@@ -25599,8 +26998,11 @@
       <c r="K466" t="s">
         <v>2461</v>
       </c>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A467" t="s">
         <v>3012</v>
       </c>
@@ -25634,8 +27036,11 @@
       <c r="K467" t="s">
         <v>2466</v>
       </c>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A468" t="s">
         <v>3013</v>
       </c>
@@ -25669,8 +27074,11 @@
       <c r="K468" t="s">
         <v>2471</v>
       </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A469" t="s">
         <v>3014</v>
       </c>
@@ -25701,8 +27109,11 @@
       <c r="J469">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A470" t="s">
         <v>2478</v>
       </c>
@@ -25736,8 +27147,11 @@
       <c r="K470" t="s">
         <v>2483</v>
       </c>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A471" t="s">
         <v>3015</v>
       </c>
@@ -25768,8 +27182,11 @@
       <c r="J471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A472" t="s">
         <v>3016</v>
       </c>
@@ -25803,8 +27220,11 @@
       <c r="K472" t="s">
         <v>2493</v>
       </c>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A473" t="s">
         <v>2495</v>
       </c>
@@ -25838,8 +27258,11 @@
       <c r="K473" t="s">
         <v>2500</v>
       </c>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A474" t="s">
         <v>3017</v>
       </c>
@@ -25873,8 +27296,11 @@
       <c r="K474" t="s">
         <v>2505</v>
       </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A475" t="s">
         <v>2506</v>
       </c>
@@ -25908,8 +27334,11 @@
       <c r="K475" t="s">
         <v>2509</v>
       </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A476" t="s">
         <v>3018</v>
       </c>
@@ -25943,8 +27372,11 @@
       <c r="K476" t="s">
         <v>2514</v>
       </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A477" t="s">
         <v>3019</v>
       </c>
@@ -25978,8 +27410,11 @@
       <c r="K477" t="s">
         <v>2520</v>
       </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A478" t="s">
         <v>2522</v>
       </c>
@@ -26010,8 +27445,11 @@
       <c r="J478">
         <v>10</v>
       </c>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A479" t="s">
         <v>3020</v>
       </c>
@@ -26045,8 +27483,11 @@
       <c r="K479" t="s">
         <v>2532</v>
       </c>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A480" t="s">
         <v>3021</v>
       </c>
@@ -26080,8 +27521,11 @@
       <c r="K480" t="s">
         <v>2537</v>
       </c>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A481" t="s">
         <v>3022</v>
       </c>
@@ -26115,8 +27559,11 @@
       <c r="K481" t="s">
         <v>2542</v>
       </c>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A482" t="s">
         <v>2544</v>
       </c>
@@ -26147,8 +27594,11 @@
       <c r="J482">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A483" t="s">
         <v>3023</v>
       </c>
@@ -26182,8 +27632,11 @@
       <c r="K483" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A484" t="s">
         <v>2554</v>
       </c>
@@ -26217,8 +27670,11 @@
       <c r="K484" t="s">
         <v>2558</v>
       </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A485" t="s">
         <v>3024</v>
       </c>
@@ -26252,8 +27708,11 @@
       <c r="K485" t="s">
         <v>2563</v>
       </c>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A486" t="s">
         <v>3025</v>
       </c>
@@ -26284,8 +27743,11 @@
       <c r="J486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A487" t="s">
         <v>3026</v>
       </c>
@@ -26319,8 +27781,11 @@
       <c r="K487" t="s">
         <v>2572</v>
       </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A488" t="s">
         <v>3027</v>
       </c>
@@ -26354,8 +27819,11 @@
       <c r="K488" t="s">
         <v>2577</v>
       </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A489" t="s">
         <v>3028</v>
       </c>
@@ -26389,8 +27857,11 @@
       <c r="K489" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A490" t="s">
         <v>3029</v>
       </c>
@@ -26424,8 +27895,11 @@
       <c r="K490" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A491" t="s">
         <v>2589</v>
       </c>
@@ -26459,8 +27933,11 @@
       <c r="K491" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A492" t="s">
         <v>3030</v>
       </c>
@@ -26494,8 +27971,11 @@
       <c r="K492" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A493" t="s">
         <v>3031</v>
       </c>
@@ -26529,8 +28009,11 @@
       <c r="K493" t="s">
         <v>2605</v>
       </c>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A494" t="s">
         <v>3032</v>
       </c>
@@ -26561,8 +28044,11 @@
       <c r="J494">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A495" t="s">
         <v>3033</v>
       </c>
@@ -26596,8 +28082,11 @@
       <c r="K495" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A496" t="s">
         <v>3034</v>
       </c>
@@ -26631,8 +28120,11 @@
       <c r="K496" t="s">
         <v>2622</v>
       </c>
-    </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A497" t="s">
         <v>3035</v>
       </c>
@@ -26666,8 +28158,11 @@
       <c r="K497" t="s">
         <v>2628</v>
       </c>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A498" t="s">
         <v>3036</v>
       </c>
@@ -26701,8 +28196,11 @@
       <c r="K498" t="s">
         <v>2634</v>
       </c>
-    </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L498">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A499" t="s">
         <v>3037</v>
       </c>
@@ -26736,8 +28234,11 @@
       <c r="K499" t="s">
         <v>2640</v>
       </c>
-    </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L499">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A500" t="s">
         <v>3038</v>
       </c>
@@ -26771,8 +28272,11 @@
       <c r="K500" t="s">
         <v>2646</v>
       </c>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="L500">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A501" t="s">
         <v>3039</v>
       </c>
@@ -26805,6 +28309,9 @@
       </c>
       <c r="K501" t="s">
         <v>2651</v>
+      </c>
+      <c r="L501">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
